--- a/Plan de Pruebas.xlsx
+++ b/Plan de Pruebas.xlsx
@@ -2128,6 +2128,183 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2140,39 +2317,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2185,150 +2332,12 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2338,9 +2347,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2354,12 +2360,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2401,7 +2401,7 @@
         <xdr:cNvPr id="7" name="1 Grupo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2420,7 @@
           <xdr:cNvPr id="8" name="2 Triángulo isósceles">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2464,7 +2464,7 @@
           <xdr:cNvPr id="9" name="3 CuadroTexto">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2516,7 +2516,7 @@
           <xdr:cNvPr id="10" name="4 CuadroTexto">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2567,7 +2567,7 @@
           <xdr:cNvPr id="11" name="5 CuadroTexto">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2636,7 +2636,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2699,7 @@
         <xdr:cNvPr id="13" name="Flecha: a la derecha 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8F414B-1B05-424D-AEBD-0397129D474E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C8F414B-1B05-424D-AEBD-0397129D474E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2771,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2839,7 +2839,7 @@
         <xdr:cNvPr id="2" name="Flecha: a la derecha 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F11EFA6-F96F-4D3C-A0D7-86F7F846B3A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F11EFA6-F96F-4D3C-A0D7-86F7F846B3A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3174,7 +3174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3184,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:I77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3203,146 +3203,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="2:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="126"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
     </row>
     <row r="3" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
     </row>
     <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="132"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="122"/>
     </row>
     <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="129"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
     </row>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="114" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="86"/>
     </row>
     <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="123"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="86"/>
     </row>
     <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="123"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="129"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="86"/>
     </row>
     <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="129"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
     </row>
     <row r="12" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="135"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
     </row>
     <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -3358,76 +3358,76 @@
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="89"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="102"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="89"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="102"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="89"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="102"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="89"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="102"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="89"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="102"/>
     </row>
     <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19"/>
@@ -3440,54 +3440,54 @@
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="138"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108"/>
     </row>
     <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="145" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
       <c r="I24" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="122"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
     </row>
     <row r="26" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115" t="s">
+      <c r="C26" s="113"/>
+      <c r="D26" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="115"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="20" t="s">
         <v>18</v>
       </c>
@@ -3502,14 +3502,14 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147" t="s">
+      <c r="C27" s="96"/>
+      <c r="D27" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="147"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="78">
         <v>3</v>
       </c>
@@ -3525,14 +3525,14 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="146" t="s">
+      <c r="B28" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147" t="s">
+      <c r="C28" s="96"/>
+      <c r="D28" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="147"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="78">
         <v>1</v>
       </c>
@@ -3548,14 +3548,14 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147" t="s">
+      <c r="C29" s="96"/>
+      <c r="D29" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="147"/>
+      <c r="E29" s="96"/>
       <c r="F29" s="78">
         <v>3</v>
       </c>
@@ -3571,14 +3571,14 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="146" t="s">
+      <c r="B30" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="148"/>
-      <c r="D30" s="94" t="s">
+      <c r="C30" s="97"/>
+      <c r="D30" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="94"/>
+      <c r="E30" s="98"/>
       <c r="F30" s="78">
         <v>2</v>
       </c>
@@ -3594,14 +3594,14 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="87" t="s">
+      <c r="C31" s="98"/>
+      <c r="D31" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="94"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="78">
         <v>3</v>
       </c>
@@ -3617,14 +3617,14 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94" t="s">
+      <c r="C32" s="98"/>
+      <c r="D32" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="94"/>
+      <c r="E32" s="98"/>
       <c r="F32" s="78">
         <v>3</v>
       </c>
@@ -3640,14 +3640,14 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="140" t="s">
+      <c r="C33" s="88"/>
+      <c r="D33" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="140"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="78">
         <v>3</v>
       </c>
@@ -3663,26 +3663,26 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="111"/>
     </row>
     <row r="35" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115" t="s">
+      <c r="C35" s="113"/>
+      <c r="D35" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="115"/>
+      <c r="E35" s="113"/>
       <c r="F35" s="20" t="s">
         <v>18</v>
       </c>
@@ -3695,22 +3695,22 @@
       <c r="I35" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="83" t="s">
+      <c r="J35" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="85"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="144"/>
     </row>
     <row r="36" spans="2:13" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="25">
         <v>3</v>
       </c>
@@ -3724,24 +3724,24 @@
       <c r="I36" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="J36" s="93" t="s">
+      <c r="J36" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="94" t="s">
+      <c r="K36" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="L36" s="94"/>
-      <c r="M36" s="95"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="146"/>
     </row>
     <row r="37" spans="2:13" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94" t="s">
+      <c r="C37" s="98"/>
+      <c r="D37" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="94"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="25">
         <v>3</v>
       </c>
@@ -3755,18 +3755,18 @@
       <c r="I37" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="J37" s="93" t="s">
+      <c r="J37" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="95"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="146"/>
     </row>
     <row r="38" spans="2:13" s="3" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="93"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="94"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="82">
@@ -3774,16 +3774,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="95"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="146"/>
     </row>
     <row r="39" spans="2:13" s="3" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="93"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="117"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="126"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="82">
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="95"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="146"/>
     </row>
     <row r="40" spans="2:13" s="3" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="65"/>
@@ -3805,16 +3805,16 @@
         <v>0</v>
       </c>
       <c r="I40" s="68"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="95"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="146"/>
     </row>
     <row r="41" spans="2:13" s="3" customFormat="1" ht="29.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="96"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="82">
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="98"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="147"/>
     </row>
     <row r="42" spans="2:13" s="79" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="81"/>
       <c r="C42" s="81"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="160"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="84"/>
       <c r="F42" s="82"/>
       <c r="G42" s="82"/>
       <c r="H42" s="82"/>
@@ -3856,11 +3856,11 @@
     </row>
     <row r="45" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
-      <c r="C45" s="113" t="s">
+      <c r="C45" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
       <c r="F45" s="23" t="s">
         <v>43</v>
       </c>
@@ -3873,81 +3873,81 @@
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="102" t="s">
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="134"/>
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="103"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="134"/>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="112" t="s">
+      <c r="C48" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="102" t="s">
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
       <c r="I48" s="10"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="103"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
       <c r="I49" s="10"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="103" t="s">
+      <c r="B50" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="104" t="s">
+      <c r="C50" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="102" t="s">
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="103"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3962,131 +3962,131 @@
     </row>
     <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="99" t="s">
+      <c r="B54" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="101"/>
+      <c r="C54" s="149"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="149"/>
+      <c r="F54" s="149"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="150"/>
     </row>
     <row r="55" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="102"/>
     </row>
     <row r="56" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="89"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="88"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="102"/>
     </row>
     <row r="57" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="89"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="88"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="102"/>
     </row>
     <row r="58" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="89"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="88"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="102"/>
     </row>
     <row r="59" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="89"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="88"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="102"/>
     </row>
     <row r="60" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="89"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="88"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="102"/>
     </row>
     <row r="61" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="89"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="88"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="102"/>
     </row>
     <row r="62" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="89"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="88"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="102"/>
     </row>
     <row r="63" spans="2:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="89"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="88"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="102"/>
     </row>
     <row r="64" spans="2:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="90"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="91"/>
-      <c r="E64" s="91"/>
-      <c r="F64" s="91"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="91"/>
-      <c r="I64" s="92"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="105"/>
     </row>
     <row r="65" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="111" t="e">
+      <c r="B65" s="115" t="e">
         <f>-I</f>
         <v>#NAME?</v>
       </c>
-      <c r="C65" s="111"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="115"/>
     </row>
     <row r="66" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
@@ -4101,212 +4101,212 @@
       <c r="I66" s="18"/>
     </row>
     <row r="67" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="105" t="s">
+      <c r="B67" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="107"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="138"/>
     </row>
     <row r="68" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="89" t="s">
+      <c r="B68" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="102"/>
     </row>
     <row r="69" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="89"/>
-      <c r="C69" s="87"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="87"/>
-      <c r="I69" s="88"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="102"/>
     </row>
     <row r="70" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="89"/>
-      <c r="C70" s="87"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="88"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="102"/>
     </row>
     <row r="71" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="89"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="88"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="102"/>
     </row>
     <row r="72" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="89"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="88"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="102"/>
     </row>
     <row r="73" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="89"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="88"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="102"/>
     </row>
     <row r="74" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="89"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="88"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="102"/>
     </row>
     <row r="75" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="89"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="88"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="102"/>
     </row>
     <row r="76" spans="2:9" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="89"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="88"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="102"/>
     </row>
     <row r="77" spans="2:9" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="89"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="88"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="102"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="105" t="s">
+      <c r="B78" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="106"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="106"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="107"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="137"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="138"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="89" t="s">
+      <c r="B79" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="C79" s="87"/>
-      <c r="D79" s="87"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="87"/>
-      <c r="H79" s="87"/>
-      <c r="I79" s="88"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="102"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="89"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="87"/>
-      <c r="I80" s="88"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="102"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="89"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="88"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="88"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="102"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="89"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="87"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="87"/>
-      <c r="H82" s="87"/>
-      <c r="I82" s="88"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="88"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="102"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="89"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="87"/>
-      <c r="H83" s="87"/>
-      <c r="I83" s="88"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="102"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="89"/>
-      <c r="C84" s="87"/>
-      <c r="D84" s="87"/>
-      <c r="E84" s="87"/>
-      <c r="F84" s="87"/>
-      <c r="G84" s="87"/>
-      <c r="H84" s="87"/>
-      <c r="I84" s="88"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="88"/>
+      <c r="H84" s="88"/>
+      <c r="I84" s="102"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="89"/>
-      <c r="C85" s="87"/>
-      <c r="D85" s="87"/>
-      <c r="E85" s="87"/>
-      <c r="F85" s="87"/>
-      <c r="G85" s="87"/>
-      <c r="H85" s="87"/>
-      <c r="I85" s="88"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="102"/>
     </row>
     <row r="86" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="90"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="92"/>
+      <c r="B86" s="103"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="104"/>
+      <c r="E86" s="104"/>
+      <c r="F86" s="104"/>
+      <c r="G86" s="104"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="105"/>
     </row>
     <row r="88" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
@@ -4333,113 +4333,177 @@
       <c r="I89" s="7"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="108" t="s">
+      <c r="B90" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="109"/>
-      <c r="F90" s="109"/>
-      <c r="G90" s="109"/>
-      <c r="H90" s="109"/>
-      <c r="I90" s="110"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="140"/>
+      <c r="E90" s="140"/>
+      <c r="F90" s="140"/>
+      <c r="G90" s="140"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="141"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="89"/>
-      <c r="C91" s="87"/>
-      <c r="D91" s="87"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="87"/>
-      <c r="G91" s="87"/>
-      <c r="H91" s="87"/>
-      <c r="I91" s="88"/>
+      <c r="B91" s="87"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="88"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="102"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="89"/>
-      <c r="C92" s="87"/>
-      <c r="D92" s="87"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="87"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="87"/>
-      <c r="I92" s="88"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="102"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="89"/>
-      <c r="C93" s="87"/>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="87"/>
-      <c r="H93" s="87"/>
-      <c r="I93" s="88"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="102"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="89"/>
-      <c r="C94" s="87"/>
-      <c r="D94" s="87"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="87"/>
-      <c r="G94" s="87"/>
-      <c r="H94" s="87"/>
-      <c r="I94" s="88"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="102"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="89"/>
-      <c r="C95" s="87"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="87"/>
-      <c r="I95" s="88"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="102"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="89"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="87"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="87"/>
-      <c r="G96" s="87"/>
-      <c r="H96" s="87"/>
-      <c r="I96" s="88"/>
+      <c r="B96" s="87"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="88"/>
+      <c r="H96" s="88"/>
+      <c r="I96" s="102"/>
     </row>
     <row r="97" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B97" s="89"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="87"/>
-      <c r="F97" s="87"/>
-      <c r="G97" s="87"/>
-      <c r="H97" s="87"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="141" t="s">
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="102"/>
+      <c r="J97" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="K97" s="142"/>
+      <c r="K97" s="91"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="89"/>
-      <c r="C98" s="87"/>
-      <c r="D98" s="87"/>
-      <c r="E98" s="87"/>
-      <c r="F98" s="87"/>
-      <c r="G98" s="87"/>
-      <c r="H98" s="87"/>
-      <c r="I98" s="88"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="88"/>
+      <c r="E98" s="88"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="88"/>
+      <c r="H98" s="88"/>
+      <c r="I98" s="102"/>
     </row>
     <row r="99" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="90"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="91"/>
-      <c r="F99" s="91"/>
-      <c r="G99" s="91"/>
-      <c r="H99" s="91"/>
-      <c r="I99" s="92"/>
+      <c r="B99" s="103"/>
+      <c r="C99" s="104"/>
+      <c r="D99" s="104"/>
+      <c r="E99" s="104"/>
+      <c r="F99" s="104"/>
+      <c r="G99" s="104"/>
+      <c r="H99" s="104"/>
+      <c r="I99" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="B55:I64"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B90:I99"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B79:I86"/>
+    <mergeCell ref="B68:I77"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="B15:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
@@ -4456,70 +4520,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="B15:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B90:I99"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B79:I86"/>
-    <mergeCell ref="B68:I77"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="B55:I64"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:H43">
     <cfRule type="colorScale" priority="9">
@@ -4568,18 +4568,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
@@ -4710,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4728,7 +4728,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -4737,23 +4737,23 @@
       <c r="C1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="153" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
+      <c r="A2" s="152"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -4776,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="71"/>
     </row>
@@ -4788,7 +4788,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="71"/>
     </row>
@@ -4800,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="71"/>
     </row>
@@ -4816,10 +4816,10 @@
         <f>SUM(D8:D16)</f>
         <v>15.75</v>
       </c>
-      <c r="G7" s="151" t="s">
+      <c r="G7" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="151"/>
+      <c r="H7" s="154"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
@@ -4829,11 +4829,11 @@
         <v>3</v>
       </c>
       <c r="E8" s="70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="71"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
@@ -4846,8 +4846,8 @@
         <v>1</v>
       </c>
       <c r="F9" s="71"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
@@ -4857,11 +4857,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="71"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
@@ -4874,8 +4874,8 @@
         <v>1</v>
       </c>
       <c r="F11" s="71"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
@@ -4885,11 +4885,11 @@
         <v>2</v>
       </c>
       <c r="E12" s="70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="71"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
@@ -4899,11 +4899,11 @@
         <v>2</v>
       </c>
       <c r="E13" s="70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="71"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="75" t="s">
@@ -4913,11 +4913,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="71"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
@@ -4927,11 +4927,11 @@
         <v>2</v>
       </c>
       <c r="E15" s="70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="71"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
@@ -4944,8 +4944,8 @@
         <v>1</v>
       </c>
       <c r="F16" s="71"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
@@ -4959,8 +4959,8 @@
         <f>SUM(D18:D23)</f>
         <v>16</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="75" t="s">
@@ -4973,8 +4973,8 @@
         <v>1</v>
       </c>
       <c r="F18" s="71"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
@@ -4984,11 +4984,11 @@
         <v>3</v>
       </c>
       <c r="E19" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="71"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
@@ -4998,11 +4998,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="71"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="75" t="s">
@@ -5012,11 +5012,11 @@
         <v>4.5</v>
       </c>
       <c r="E21" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="71"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="75" t="s">
@@ -5026,11 +5026,11 @@
         <v>3.5</v>
       </c>
       <c r="E22" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="71"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
@@ -5043,8 +5043,8 @@
         <v>1</v>
       </c>
       <c r="F23" s="71"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -5058,8 +5058,8 @@
         <f>SUM(D25:D32)</f>
         <v>14.16</v>
       </c>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="75" t="s">
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="71"/>
       <c r="G25" s="31"/>
@@ -5097,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="31"/>
@@ -5111,7 +5111,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="71"/>
       <c r="G28" s="31"/>
@@ -5125,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="31"/>
@@ -5139,7 +5139,7 @@
         <v>2.33</v>
       </c>
       <c r="E30" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="31"/>
@@ -5167,7 +5167,7 @@
         <v>1.5</v>
       </c>
       <c r="E32" s="72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" s="71"/>
       <c r="G32" s="31"/>
@@ -5195,7 +5195,9 @@
       <c r="D34" s="72">
         <v>1</v>
       </c>
-      <c r="E34" s="72"/>
+      <c r="E34" s="72">
+        <v>1</v>
+      </c>
       <c r="F34" s="71"/>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
@@ -5204,8 +5206,12 @@
       <c r="A35" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
+      <c r="D35" s="72">
+        <v>1</v>
+      </c>
+      <c r="E35" s="72">
+        <v>1</v>
+      </c>
       <c r="F35" s="71"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
@@ -5214,8 +5220,12 @@
       <c r="A36" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
+      <c r="D36" s="72">
+        <v>1</v>
+      </c>
+      <c r="E36" s="72">
+        <v>1</v>
+      </c>
       <c r="F36" s="71"/>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
@@ -5242,7 +5252,9 @@
       <c r="D38" s="72">
         <v>1</v>
       </c>
-      <c r="E38" s="72"/>
+      <c r="E38" s="72">
+        <v>1</v>
+      </c>
       <c r="F38" s="71"/>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
@@ -5254,7 +5266,9 @@
       <c r="D39" s="72">
         <v>1</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="72">
+        <v>1</v>
+      </c>
       <c r="F39" s="71"/>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
@@ -5266,7 +5280,9 @@
       <c r="D40" s="72">
         <v>1</v>
       </c>
-      <c r="E40" s="72"/>
+      <c r="E40" s="72">
+        <v>1</v>
+      </c>
       <c r="F40" s="71"/>
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
@@ -5278,7 +5294,9 @@
       <c r="D41" s="72">
         <v>1</v>
       </c>
-      <c r="E41" s="72"/>
+      <c r="E41" s="72">
+        <v>1</v>
+      </c>
       <c r="F41" s="71"/>
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
@@ -5287,7 +5305,9 @@
       <c r="D42" s="72">
         <v>1</v>
       </c>
-      <c r="E42" s="72"/>
+      <c r="E42" s="72">
+        <v>1</v>
+      </c>
       <c r="F42" s="71"/>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
@@ -5345,55 +5365,55 @@
       <c r="A49" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="152" t="s">
+      <c r="D49" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="152"/>
+      <c r="E49" s="155"/>
       <c r="F49" s="43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="152" t="s">
+      <c r="D50" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="152"/>
+      <c r="E50" s="155"/>
       <c r="F50" s="42">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D51" s="152" t="s">
+      <c r="D51" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="152"/>
+      <c r="E51" s="155"/>
       <c r="F51" s="42">
         <f>F50*F49</f>
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D52" s="152" t="s">
+      <c r="D52" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="152"/>
+      <c r="E52" s="155"/>
       <c r="F52" s="41">
         <f>D43/F51</f>
-        <v>1.7474999999999998</v>
+        <v>6.9899999999999993</v>
       </c>
       <c r="G52" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G7:H24"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D51:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5424,15 +5444,15 @@
       <c r="B5" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
@@ -5442,44 +5462,44 @@
       <c r="D6" s="54">
         <v>1</v>
       </c>
-      <c r="E6" s="156" t="s">
+      <c r="E6" s="158" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="160"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="49"/>
-      <c r="D7" s="155">
+      <c r="D7" s="157">
         <v>2</v>
       </c>
-      <c r="E7" s="154" t="s">
+      <c r="E7" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="49"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
@@ -5489,14 +5509,14 @@
       <c r="D9" s="54">
         <v>3</v>
       </c>
-      <c r="E9" s="156" t="s">
+      <c r="E9" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
